--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2765073.037812239</v>
+        <v>2873715.19911505</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8752429.160932066</v>
+        <v>8757922.806920482</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>341.7062753421062</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>295.2706866651729</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>11.9711823264746</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>98.34030182183331</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>14.32580002787383</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>288.1178394714073</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>24.61822834332166</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>79.04635399905084</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.7327776912344</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>267.8671361422188</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>149.8046948393862</v>
+        <v>37.36586370461442</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>114.5006452705931</v>
       </c>
       <c r="E16" t="n">
-        <v>85.08368458989469</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.780257294551</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>64.40601307691422</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>34.21058558914873</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>40.37234576591481</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>104.3471808964298</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>37.58623250008594</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>73.23997380652436</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189102</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766866</v>
+        <v>121.011622399059</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>85.08368458989587</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>103.5745801383502</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>20.43112068613158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>243.1373908222621</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4021082756248</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1246.899958573734</v>
+        <v>1593.528088680778</v>
       </c>
       <c r="C2" t="n">
-        <v>877.9374416333219</v>
+        <v>1593.528088680778</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>1593.528088680778</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4358,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>2010.505048810625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X2" t="n">
-        <v>1637.039290549545</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y2" t="n">
-        <v>1246.899958573734</v>
+        <v>1980.1279287449</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4418,13 @@
         <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467.223769593414</v>
+        <v>447.232416490762</v>
       </c>
       <c r="C4" t="n">
-        <v>467.223769593414</v>
+        <v>447.232416490762</v>
       </c>
       <c r="D4" t="n">
-        <v>317.1071301810782</v>
+        <v>447.232416490762</v>
       </c>
       <c r="E4" t="n">
-        <v>169.1940365986851</v>
+        <v>299.3193229083689</v>
       </c>
       <c r="F4" t="n">
-        <v>169.1940365986851</v>
+        <v>299.3193229083689</v>
       </c>
       <c r="G4" t="n">
-        <v>169.1940365986851</v>
+        <v>299.3193229083689</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>150.5804247718751</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W4" t="n">
-        <v>869.6648135671838</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="X4" t="n">
-        <v>869.6648135671838</v>
+        <v>668.0249956342922</v>
       </c>
       <c r="Y4" t="n">
-        <v>648.8722344236537</v>
+        <v>447.232416490762</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>901.3425442071332</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="C5" t="n">
-        <v>901.3425442071332</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="D5" t="n">
-        <v>543.0768456003827</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E5" t="n">
-        <v>543.0768456003827</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>132.0909408107752</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4595,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182945</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="Y5" t="n">
-        <v>901.3425442071332</v>
+        <v>1540.262284242502</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605187</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919903</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.7732565618932</v>
+        <v>390.9900960741214</v>
       </c>
       <c r="C7" t="n">
-        <v>576.8370736339863</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D7" t="n">
-        <v>426.7204342216505</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,7 +4725,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>1216.838891429094</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W7" t="n">
-        <v>927.4217213921329</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="X7" t="n">
-        <v>927.4217213921329</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="Y7" t="n">
-        <v>927.4217213921329</v>
+        <v>572.6385609043612</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189673</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1686.146217270883</v>
+        <v>1299.490669078613</v>
       </c>
       <c r="U10" t="n">
-        <v>1686.146217270883</v>
+        <v>1010.37233158245</v>
       </c>
       <c r="V10" t="n">
-        <v>1686.146217270883</v>
+        <v>755.6878433765636</v>
       </c>
       <c r="W10" t="n">
-        <v>1396.729047233923</v>
+        <v>755.6878433765636</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>527.6982924785463</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>527.6982924785463</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5306,19 +5308,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474266</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000582</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,22 +5503,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>447.928008406947</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>280.731909121827</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300426</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926978</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>3807.864035926978</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449245</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958739</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C25" t="n">
-        <v>802.9288273958739</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>650.3841300523919</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>502.4710364699988</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>355.5810889720884</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261136</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6236,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650335</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6552,16 +6554,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>3295.835008173203</v>
       </c>
       <c r="C31" t="n">
-        <v>2646.594662309226</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.594662309226</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309226</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
         <v>2337.686731866304</v>
@@ -6643,28 +6645,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>3516.627587316733</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>3295.835008173203</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306003</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>2655.833190378096</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>2505.71655096576</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E34" t="n">
-        <v>2419.773435218391</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F34" t="n">
-        <v>2419.773435218391</v>
+        <v>302.5953191078052</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>135.3992198226851</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6919,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1053.171308869726</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>884.2351259418192</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.601903741513</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.612352843496</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.819773699966</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7309,25 +7311,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,25 +7356,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
         <v>753.3092412490405</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C43" t="n">
-        <v>493.2161050975141</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7658,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3227.225672628156</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C46" t="n">
-        <v>3058.289489700249</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D46" t="n">
-        <v>2908.172850287914</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E46" t="n">
-        <v>2760.25975670552</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F46" t="n">
-        <v>2613.36980920761</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G46" t="n">
-        <v>2446.17370992249</v>
+        <v>2421.591387345378</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4690.833152398593</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>4401.757925742791</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>4147.073437536904</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>3857.656267499943</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X46" t="n">
-        <v>3629.666716601926</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y46" t="n">
-        <v>3408.874137458396</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>6.45443753892954</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.9556134883069376</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>34.11482774761924</v>
       </c>
       <c r="E16" t="n">
-        <v>61.35027805667448</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>36.5144555516729</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>161.3036423121229</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>178.21230758618</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>44.26829212178251</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>127.9379057921829</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>75.37549921168799</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194126</v>
+        <v>46.23519869956884</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>61.3502780566733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.1279816392578</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>45.04089287986216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>146.8157004124963</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>9.000252501565882</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>32.89260457059909</v>
+        <v>57.2291039219412</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>765563.0767745855</v>
+        <v>771505.0042756563</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633791</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.0443633791</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633791</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633791</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.044363379</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380344</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442555</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442545</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442554</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805866</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707331</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707348</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707441</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662239.8227093552</v>
+        <v>-662239.8227093553</v>
       </c>
       <c r="C6" t="n">
-        <v>452511.9608665642</v>
+        <v>452511.960866564</v>
       </c>
       <c r="D6" t="n">
-        <v>290713.9198682435</v>
+        <v>452511.960866564</v>
       </c>
       <c r="E6" t="n">
-        <v>232463.5286162848</v>
+        <v>50390.54879909432</v>
       </c>
       <c r="F6" t="n">
         <v>557875.9904236404</v>
       </c>
       <c r="G6" t="n">
-        <v>557875.9904236408</v>
+        <v>557875.9904236402</v>
       </c>
       <c r="H6" t="n">
         <v>557875.9904236407</v>
       </c>
       <c r="I6" t="n">
-        <v>557875.9904236409</v>
+        <v>557875.9904236407</v>
       </c>
       <c r="J6" t="n">
-        <v>390270.8126136582</v>
+        <v>390270.8126136579</v>
       </c>
       <c r="K6" t="n">
-        <v>557875.9904236409</v>
+        <v>557875.9904236402</v>
       </c>
       <c r="L6" t="n">
-        <v>509582.0204154503</v>
+        <v>557875.9904236404</v>
       </c>
       <c r="M6" t="n">
-        <v>472820.9624881286</v>
+        <v>425268.6966947133</v>
       </c>
       <c r="N6" t="n">
-        <v>557875.9904236402</v>
+        <v>557875.9904236405</v>
       </c>
       <c r="O6" t="n">
-        <v>557875.9904236409</v>
+        <v>557875.9904236404</v>
       </c>
       <c r="P6" t="n">
-        <v>557875.9904236401</v>
+        <v>557875.9904236405</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>40.22409473015563</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>53.97028205224012</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>135.2803268286542</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.456293382067258</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.2219027450802</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>81.61326120706173</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>142.6285927553062</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>67.38760864751833</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319.0010639722462</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>97.40575562878877</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.744254436783</v>
+        <v>183.3828322925975</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31279,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31297,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31312,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31367,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31434,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31449,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31467,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31846,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209194</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107733</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O42" t="n">
-        <v>651.5998000366021</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34448,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>401.521336481369</v>
       </c>
       <c r="L45" t="n">
-        <v>608.2694430035901</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34784,16 +34786,16 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202789</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>256.1339666624619</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34936,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34945,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560633</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35024,16 +35026,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>388.6189266346383</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35100,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35109,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>298.6359741261571</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663288</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462666</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O42" t="n">
-        <v>509.0035555921577</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="L45" t="n">
-        <v>469.7150632237159</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2873715.19911505</v>
+        <v>2869578.0418649</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>341.7062753421062</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>226.6923007769145</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>85.45564210299027</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>98.34030182183331</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>290.3363559033987</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>288.1178394714073</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>24.61822834332166</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>218.2275692240563</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>267.8671361422188</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>286.588867942607</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>37.36586370461442</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>196.4017961483599</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>114.5006452705931</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>103.780257294551</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>145.2692016866631</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.37234576591481</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>37.58623250008594</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>73.23997380652436</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>121.011622399059</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>180.4457250758527</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>41.16673120696609</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>29.95900124023849</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>243.1373908222621</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428269</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1593.528088680778</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="C2" t="n">
-        <v>1593.528088680778</v>
+        <v>1077.003065952738</v>
       </c>
       <c r="D2" t="n">
-        <v>1593.528088680778</v>
+        <v>1077.003065952738</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>691.214813354494</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>280.2289085648865</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.1279287449</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y2" t="n">
-        <v>1980.1279287449</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2193.450786296772</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447.232416490762</v>
+        <v>1006.015525202711</v>
       </c>
       <c r="C4" t="n">
-        <v>447.232416490762</v>
+        <v>837.0793422748037</v>
       </c>
       <c r="D4" t="n">
-        <v>447.232416490762</v>
+        <v>686.9627028624679</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3193229083689</v>
+        <v>539.0496092800748</v>
       </c>
       <c r="F4" t="n">
-        <v>299.3193229083689</v>
+        <v>392.1596617821644</v>
       </c>
       <c r="G4" t="n">
-        <v>299.3193229083689</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5804247718751</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323095</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W4" t="n">
-        <v>896.0145465323095</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="X4" t="n">
-        <v>668.0249956342922</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>447.232416490762</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.262284242502</v>
+        <v>1078.689549231438</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.262284242502</v>
+        <v>709.7270322910265</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>351.461333684276</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>351.461333684276</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>344.5158329350725</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4582,37 +4582,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920691</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.262284242502</v>
+        <v>1855.428721271372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.262284242502</v>
+        <v>1465.28938929556</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>390.9900960741214</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="C7" t="n">
-        <v>366.1231987576349</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>793.4311400478913</v>
+        <v>1416.01423196939</v>
       </c>
       <c r="W7" t="n">
-        <v>793.4311400478913</v>
+        <v>1126.59706193243</v>
       </c>
       <c r="X7" t="n">
-        <v>793.4311400478913</v>
+        <v>898.6075110344123</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.6385609043612</v>
+        <v>677.8149318908821</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549579</v>
+        <v>728.3028554854577</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>359.340338545046</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4822,22 +4822,22 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
         <v>2231.276441056585</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159568</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751767</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.0498276483066</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1299.490669078613</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1010.37233158245</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="V10" t="n">
-        <v>755.6878433765636</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>755.6878433765636</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>527.6982924785463</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>527.6982924785463</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5609,13 +5609,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>447.928008406947</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>280.731909121827</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6083,13 +6083,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>800.5007694647277</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>650.3841300523919</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>502.4710364699988</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>355.5810889720884</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6320,13 +6320,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.530292372932</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C28" t="n">
-        <v>853.5941094450255</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.178757203172</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6554,16 +6554,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3295.835008173203</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3744.61713821475</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3516.627587316733</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3295.835008173203</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D34" t="n">
-        <v>449.4852666057155</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4852666057155</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F34" t="n">
-        <v>302.5953191078052</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="G34" t="n">
-        <v>135.3992198226851</v>
+        <v>265.7901116201561</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>124.0782804623542</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7502,16 +7502,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4507.978318053498</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,7 +7660,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630498</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630498</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630498</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630498</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>2421.591387345378</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.45443753892954</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.9393975111049</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9556134883069376</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.11482774761924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>36.5144555516729</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>80.44045370237404</v>
       </c>
       <c r="Y22" t="n">
-        <v>178.21230758618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>127.9379057921829</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>75.37549921168799</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.23519869956884</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>38.13892827624204</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>99.1279816392578</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>51.30683507832703</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>9.000252501565882</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219412</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442555</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707305</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707319</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707304</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.424496707304</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-662239.8227093553</v>
       </c>
       <c r="C6" t="n">
-        <v>452511.960866564</v>
+        <v>452511.9608665642</v>
       </c>
       <c r="D6" t="n">
-        <v>452511.960866564</v>
+        <v>452511.9608665641</v>
       </c>
       <c r="E6" t="n">
-        <v>50390.54879909432</v>
+        <v>50043.16954473795</v>
       </c>
       <c r="F6" t="n">
-        <v>557875.9904236404</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="G6" t="n">
-        <v>557875.9904236402</v>
+        <v>557528.6111692833</v>
       </c>
       <c r="H6" t="n">
-        <v>557875.9904236407</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="I6" t="n">
-        <v>557875.9904236407</v>
+        <v>557528.611169284</v>
       </c>
       <c r="J6" t="n">
-        <v>390270.8126136579</v>
+        <v>389923.4333593012</v>
       </c>
       <c r="K6" t="n">
-        <v>557875.9904236402</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="L6" t="n">
-        <v>557875.9904236404</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="M6" t="n">
-        <v>425268.6966947133</v>
+        <v>424921.3174403571</v>
       </c>
       <c r="N6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="O6" t="n">
-        <v>557875.9904236404</v>
+        <v>557528.611169284</v>
       </c>
       <c r="P6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692836</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>40.22409473015563</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>184.8554019960395</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>80.85095794181392</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.456293382067258</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>121.2113468695553</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>81.61326120706173</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>142.6285927553062</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>33.91007409977166</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>97.40575562878877</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>68.09417367807595</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>183.3828322925975</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>89.82535797284069</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.16541611216363e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093987</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>256.1339666624619</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>436.6197581489552</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>298.6359741261571</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>171.2123056344834</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2869578.0418649</v>
+        <v>2871338.572167685</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>214.3411264127419</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>226.6923007769145</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>85.45564210299027</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>66.40055121331496</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>290.3363559033987</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>105.8786600214597</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542855</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>218.2275692240563</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.588867942607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>208.2474868886337</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="U10" t="n">
-        <v>196.4017961483599</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788180381</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310427</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722645</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>4.665762779850851</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>145.2692016866631</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>172.026033500079</v>
+        <v>271.1749250822266</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.92158678358384</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.4457250758527</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>30.97191586387692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>29.95900124023849</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695675</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227938</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>68.17501931583824</v>
+        <v>23.62554568141267</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1445.96558289315</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C2" t="n">
-        <v>1077.003065952738</v>
+        <v>690.4032258886166</v>
       </c>
       <c r="D2" t="n">
-        <v>1077.003065952738</v>
+        <v>690.4032258886166</v>
       </c>
       <c r="E2" t="n">
-        <v>691.214813354494</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>280.2289085648865</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800312</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230818</v>
@@ -4409,19 +4409,19 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>423.1489515180663</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694947</v>
+        <v>717.8525085495381</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O3" t="n">
         <v>1991.864164601822</v>
@@ -4479,7 +4479,7 @@
         <v>392.1596617821644</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>224.173197090443</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386097</v>
@@ -4488,10 +4488,10 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L4" t="n">
         <v>523.6376499693235</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.689549231438</v>
+        <v>949.8076959691473</v>
       </c>
       <c r="C5" t="n">
-        <v>709.7270322910265</v>
+        <v>580.8451790287356</v>
       </c>
       <c r="D5" t="n">
-        <v>351.461333684276</v>
+        <v>580.8451790287356</v>
       </c>
       <c r="E5" t="n">
-        <v>351.461333684276</v>
+        <v>580.8451790287356</v>
       </c>
       <c r="F5" t="n">
-        <v>344.5158329350725</v>
+        <v>169.8592742391281</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800313</v>
+        <v>158.194928003821</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800313</v>
@@ -4573,13 +4573,13 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
         <v>2055.228484740841</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.428721271372</v>
+        <v>1726.546868009081</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.28938929556</v>
+        <v>1336.407536033269</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>684.9695361605191</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.1664670606424</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606424</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800313</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.01423196939</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>1126.59706193243</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>898.6075110344123</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y7" t="n">
-        <v>677.8149318908821</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854577</v>
+        <v>1785.600156360223</v>
       </c>
       <c r="C8" t="n">
-        <v>359.340338545046</v>
+        <v>1416.637639419811</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251366</v>
+        <v>1058.371940813061</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251366</v>
+        <v>672.5836882148164</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>261.5977834252089</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872918</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>2172.199996424345</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
         <v>614.5430248380219</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C10" t="n">
-        <v>349.276519562732</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U10" t="n">
-        <v>1438.060467399387</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5524,7 +5524,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,13 +5588,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468473</v>
@@ -5606,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068011</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,7 +5928,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
@@ -5937,25 +5937,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6223,10 +6223,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6256,10 +6256,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908938</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>552.3777707160738</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,13 +6639,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>734.0262355463135</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,19 +6715,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="E34" t="n">
-        <v>432.9862109052762</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>432.9862109052762</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>265.7901116201561</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>124.0782804623542</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,7 +6876,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
@@ -6885,25 +6885,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,13 +7113,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,22 +7642,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746423</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.9393975111049</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111052</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154985</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.824271744423714e-13</v>
+        <v>-4.136666127752333e-14</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194126</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>166.039752924184</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>212.7396875474374</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>80.44045370237404</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24420,7 +24420,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891651</v>
+        <v>15.00954930701755</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.6630665685109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.13892827624204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.4620467826923</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>51.30683507832703</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>45.44677382459264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11969353038562</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633791</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442555</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442555</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>4.781995812663809e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707321</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707305</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707293</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707238</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707335</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707306</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707292</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707319</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707328</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707304</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707304</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26484,25 +26484,25 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662239.8227093553</v>
+        <v>-662239.8227093557</v>
       </c>
       <c r="C6" t="n">
-        <v>452511.9608665642</v>
+        <v>452511.960866564</v>
       </c>
       <c r="D6" t="n">
         <v>452511.9608665641</v>
       </c>
       <c r="E6" t="n">
-        <v>50043.16954473795</v>
+        <v>50355.81087365898</v>
       </c>
       <c r="F6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982048</v>
       </c>
       <c r="G6" t="n">
-        <v>557528.6111692833</v>
+        <v>557841.2524982046</v>
       </c>
       <c r="H6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982049</v>
       </c>
       <c r="I6" t="n">
-        <v>557528.611169284</v>
+        <v>557841.2524982053</v>
       </c>
       <c r="J6" t="n">
-        <v>389923.4333593012</v>
+        <v>390236.0746882223</v>
       </c>
       <c r="K6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982047</v>
       </c>
       <c r="L6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982051</v>
       </c>
       <c r="M6" t="n">
-        <v>424921.3174403571</v>
+        <v>425233.9587692781</v>
       </c>
       <c r="N6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982051</v>
       </c>
       <c r="O6" t="n">
-        <v>557528.611169284</v>
+        <v>557841.2524982051</v>
       </c>
       <c r="P6" t="n">
-        <v>557528.6111692836</v>
+        <v>557841.2524982048</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175394</v>
@@ -26795,13 +26795,13 @@
         <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>167.5892436595199</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>184.8554019960395</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>80.85095794181392</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>80.85095794181389</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>121.2113468695553</v>
-      </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>195.1398925409457</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247044</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>33.91007409977166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807595</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>203.3002158843203</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28064,13 +28064,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>100.4154405304713</v>
       </c>
       <c r="U10" t="n">
-        <v>89.82535797284069</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.16541611216363e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.988773068867788e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-5.767891828183023e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M2" t="n">
         <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,22 +31126,22 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L3" t="n">
         <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405676</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31202,19 +31202,19 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I4" t="n">
         <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K4" t="n">
         <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M4" t="n">
         <v>264.0341136849628</v>
@@ -31226,22 +31226,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R4" t="n">
         <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M2" t="n">
         <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P2" t="n">
         <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R2" t="n">
         <v>20.2916633093987</v>
@@ -34780,22 +34780,22 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313199</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>528.7520287839578</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34874,10 +34874,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>436.6197581489552</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35974,10 +35974,10 @@
         <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902938</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
